--- a/biology/Zoologie/Batrachoseps/Batrachoseps.xlsx
+++ b/biology/Zoologie/Batrachoseps/Batrachoseps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batrachoseps  est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batrachoseps  est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 21 espèces de ce genre se rencontrent aux États-Unis en Oregon et en Californie et au Mexique dans le nord de la Basse-Californie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 21 espèces de ce genre se rencontrent aux États-Unis en Oregon et en Californie et au Mexique dans le nord de la Basse-Californie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (3 mars 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (3 mars 2014) :
 Batrachoseps altasierrae Jockusch, Martínez-Solano, Hansen &amp; Wake, 2012
 Batrachoseps attenuatus (Eschscholtz, 1833)
 Batrachoseps bramei Jockusch, Martínez-Solano, Hansen &amp; Wake, 2012
@@ -593,9 +609,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Plethopsis[3] a été placé en synonymie avec Batrachoseps par Stebbins et Lowe en 1949[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Plethopsis a été placé en synonymie avec Batrachoseps par Stebbins et Lowe en 1949.
 </t>
         </is>
       </c>
@@ -624,7 +642,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bonaparte, 1839 : Iconographia della Fauna Italica per le Quattro Classi degli Animali Vertebrati. Tomo II. Amphibi. Fascicolo 26 (texte intégral).</t>
         </is>
